--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="69">
   <si>
     <t>raiz</t>
   </si>
@@ -223,171 +223,6 @@
   </si>
   <si>
     <t>niños y niñas  de 9 años??? Que sigue?Regalaran píldoras del día sgte a niñas de 10?Waooo!!! Toda una instauración de la pedofilia como derecho de género?El estado imponiendo políticas de género y promoviendo la iniciación sexual a temprana edad?Y con una vacuna mortal que ya fracasó en otros países dejando muertes y lisiados?</t>
-  </si>
-  <si>
-    <t>K bueno  prevención para las niñas</t>
-  </si>
-  <si>
-    <t>. Buena labor que está realizando el Ministerio de Salud;en coordinación con Educación .Dios quiera que se evite asi las enfermedades que en estos momentos aquejan a jóvenes y adultos.</t>
-  </si>
-  <si>
-    <t>La Información es lo mas importante https://youtu.be/CRSviOLIGwQ  *VIDEO ELIMINADO*</t>
-  </si>
-  <si>
-    <t>Porq solo hasta los 13???</t>
-  </si>
-  <si>
-    <t>En el extranjero es hasta 17 deberian ser para todas en general 🙌🏻</t>
-  </si>
-  <si>
-    <t>solo a mujeres le da esa enfermedad?</t>
-  </si>
-  <si>
-    <t>tambien a hombres acavo de leerlo pero el ministerio y todo la rama de salud solo lo ofrece para mujeres</t>
-  </si>
-  <si>
-    <t>Y la verdad debe informarse a publico en general y mas importante si tenemos hijas e hijos adolescentes muy importante crear la prevencion</t>
-  </si>
-  <si>
-    <t>dan a hombres como mujeres es para prevenir el cancer de cuello uterino, pero en sí es para prevenir la transmisión sexual del virus del papiloma humano, este virus está implicado en múltiples cánceres que principalmente son por contacto sexual. Ejemplo:Cuello uterinoLengua PeneLenguaAno</t>
-  </si>
-  <si>
-    <t>Brindan más información sobre la vacuna</t>
-  </si>
-  <si>
-    <t>A los colegios de San Juan de Miraflores no han llegado aun</t>
-  </si>
-  <si>
-    <t>PORQUE EN OTROS PAISES HAN MUERTO MILES DE JÓVENES A CAUSA DE ESTA VACUNA?</t>
-  </si>
-  <si>
-    <t>Muy interesante gracias por la informacion</t>
-  </si>
-  <si>
-    <t>Es decisión de los padres, no de las menores.</t>
-  </si>
-  <si>
-    <t>Háganla obligatoria, nada de autorización ni michi. Y padres que no quieren que la niña se vacune, quince días a la sombra.</t>
-  </si>
-  <si>
-    <t>Deberías averiguar un poco para que veas que en Europa esta 'vacuna' está prohibida por daños causados a varias menores, los riesgos de efectos secundarios que van desde una fiebre hasta parálisis del cuerpo es muy alta. Por eso está perfecto que sea a decisión.</t>
-  </si>
-  <si>
-    <t>Señor ud no puede decidir por los demás, está vacuna en mi familia trajo un daño que hasta ahora le cuesta a los padres de mi sobrina, creo que debería leer más sobre el tema antes de lanzar una apreciación tan radical y absurda, como la de meter preso a alguien por cuidar del bienestar de los seres que más amamos los padres:Nuestros Hijos!!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caso personas de efectos adversos atribuidos a la vacuna </t>
-  </si>
-  <si>
-    <t>Que se lo pongan a las hijas del señor sin su autorización... Ya que lo pide... Pero a los míos NO! #ConMisHijosNoTeMetas</t>
-  </si>
-  <si>
-    <t>a usted no le pido un centavo para mantener a mis hijos es más seguro que ni hijos mantiene para dar esa opinión.</t>
-  </si>
-  <si>
-    <t>Vieron? 👆Estos antivacunas son una plaga 🤠</t>
-  </si>
-  <si>
-    <t>gracias por su aporte...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agradecimiento a otras personas </t>
-  </si>
-  <si>
-    <t>un poco, da vergüenza ajena</t>
-  </si>
-  <si>
-    <t>Bueno fuera que con su postura antivacunas se fregaran solos, pero no: nos friegan a todos. sería que los sancionen severamente: son un peligro para la salud pública.</t>
-  </si>
-  <si>
-    <t>, Entonces si ud es pro-vacunas, pues vaya,  ponga su poto y póngaselas ud!!Que tanto lío se hace, insultando a quienes no nos parece???Póngase a leer que da vergüenza, viejonaso y habla tonterías!!</t>
-  </si>
-  <si>
-    <t>Y a quién he insultado? Póngase a leer usted, al menos comentarios de Facebook.</t>
-  </si>
-  <si>
-    <t>, qué daños le ocasionó a la niña</t>
-  </si>
-  <si>
-    <t>ya se sabe que produce desde fiebres hasta parálisis cerebral y que los laboratorios experimentan en Latinoamérica con niñas menores de edad...En Europa no son coj.... y no dejan que se experimente con su población Pero acá la ONU y la OMS tienen su chacra de conejillos de Indias Algo más?</t>
-  </si>
-  <si>
-    <t>puede citar alguna fuente fidedigna donde indique eso? Tengo familiares en Europa y a ellas si se las han puesto.</t>
-  </si>
-  <si>
-    <t>Lucha contra la desinformación</t>
-  </si>
-  <si>
-    <t>hay 35 casos graves muy bien documentados ocurridos en España, aca no se puede postear pero googlealoY no es el único país de Europa</t>
-  </si>
-  <si>
-    <t>revise su inbox ahí está el link de 385 casos en EEUU</t>
-  </si>
-  <si>
-    <t>Se la dan de pro ciencia y ni pueden buscar en Google jajajaja</t>
-  </si>
-  <si>
-    <t>Bueno a mi sobrina, que desde muy pequeña sufría de alergias respiratorias, después de la primera dosis tuvo una especie de escamacion en la piel, q no podía ni siquiera bañarse con un jabón de tocador normal, ni el shampoo podía caerle en el cuerpo por que se le exacerbaba, tenía una comezón horrible y luego de una serie de exámenes, dijeron los dermatologos que era posiblemente causado por uno de los componentes de la vacuna, así q ni modo!!Mi hija es igual de alérgica y asmática, por eso que prefiero evitar!!</t>
-  </si>
-  <si>
-    <t>“ Pero ya comienza a haber datos, al menos de efectos adversos. Según la FDA, la agencia que controla los medicamentos en Estados Unidos, desde que se aprobó la vacuna en 2006 se han administrado 16 millones de dosis y se han reportado 9.746 casos de efectos adversos, que incluyen lipotimias, mareos y desmayos. Un 6% de los casos (584 en total) fueron calificados como graves. También registró la muerte de 20 chicas después de ser vacunadas, aunque en un informe la FDA especifica que "no existe un patrón común que sugiera a la vacuna como causa". En España se han distribuido 1.146.000 dosis en 2007 y 2008. Hasta el momento se han notificado 103 casos de efectos adversos, 35 de ellos graves”</t>
-  </si>
-  <si>
-    <t>Y las mayores que mueran o qué?</t>
-  </si>
-  <si>
-    <t>ya jimena esta vacunada y luana recibió ya su primera vacuna</t>
-  </si>
-  <si>
-    <t>mira para que le vacunen a la milene</t>
-  </si>
-  <si>
-    <t>Y de acá unos 10 años nacerán niñ@s?</t>
-  </si>
-  <si>
-    <t>Si, como todos los dias</t>
-  </si>
-  <si>
-    <t>Felicitaciones al Ministerio de Salud, que no desmaye ésta gran  labor de protección a las niñas peruanas.</t>
-  </si>
-  <si>
-    <t>De verdad me alegra que ahora exista esta vacuna para prevenir el cáncer de cuello uterino. Las muejeres que perdieron la batalla contra este mal deben estar muy felices allá en el cielo. Yo espero mis resultados que me los dan el 21 de noviembre ❤🙏💪.</t>
-  </si>
-  <si>
-    <t>&gt;:( siéntete culpable ahora me cuesta 600 soles</t>
-  </si>
-  <si>
-    <t>Chamita AV gracias mi chama</t>
-  </si>
-  <si>
-    <t>Un favor los componentes de esa vacuna? Gracias.</t>
-  </si>
-  <si>
-    <t>Dudas sobre la composición de las vacunas</t>
-  </si>
-  <si>
-    <t>checa esta información para la peque</t>
-  </si>
-  <si>
-    <t>Gracias!! Justo en la edad. 😀</t>
-  </si>
-  <si>
-    <t>Mi Cielito Oriana La Loquilla Yacsayauri Feliciano miren q interesante hermanas</t>
-  </si>
-  <si>
-    <t>ya la vacune 😊</t>
-  </si>
-  <si>
-    <t>Muy bien! Felicitaciones al Ministerio de Salud ,por la gran campaña ,en bien de la salud de las mujeres  !!</t>
-  </si>
-  <si>
-    <t>mira primo para Camila</t>
-  </si>
-  <si>
-    <t>Y esa vacuna cuanto dura en el cuerpo,me acuerdo k fujimuri en su tiempo mando a vacunar igual en los colegios yo no hice vacunar a mis hijas tuve desconfianza y luego salió a relucir muchas cosas sobre esa vacuna.esa vacuna será para prevenir un cáncer uterino o será una inyección anticonceptiva xq hay niñas k a esa edad empiezan la menstruación y aveces son violentadas y kedan embarazadas. Otras niñas x curiosidad empiezas vida sexual a los 12. Será para eso la verdad no confío mucho sea hormonal y ahí si pueda producirles cáncer yo no hago vacunar a mi nieta y en el colegio nadie le pone si yo no autorizo.</t>
-  </si>
-  <si>
-    <t>y luego dicen que porqué sus hijos no hablan con ustedes 🤦🏽‍♀️ ya paren con esa mentalidad tan mediocre y cerrada de decir que las relaciones sexuales son dentro del matrimonio, en la actualidad hay muchas personas que ni casarse desean. Así que déjese de mamadas y hable claro con su hijo o hija.</t>
   </si>
 </sst>
 </file>
@@ -1304,619 +1139,56 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="2">
-        <v>53.0</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="2">
-        <v>57.0</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="2">
-        <v>58.0</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D54" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="2">
-        <v>59.0</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D55" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="2">
-        <v>61.0</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D56" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="B57" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="B58" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="B59" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D59" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="B60" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D60" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="2">
-        <v>71.0</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D61" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="2">
-        <v>72.0</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D62" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="2">
-        <v>73.0</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="2">
-        <v>74.0</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D64" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="2">
-        <v>76.0</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D65" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="B66" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D66" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="B67" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D67" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
-      <c r="B68" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D68" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="B69" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D69" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="B70" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D70" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="B71" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D71" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="B72" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D72" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="B73" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D73" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
-      <c r="B74" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D74" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
-      <c r="B75" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D75" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="76" ht="15.75" customHeight="1">
-      <c r="B76" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D76" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
-      <c r="B77" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D77" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
-      <c r="B78" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D78" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
-      <c r="B79" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D79" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="80" ht="15.75" customHeight="1">
-      <c r="B80" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D80" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="81" ht="15.75" customHeight="1">
-      <c r="B81" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D81" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="82" ht="15.75" customHeight="1">
-      <c r="B82" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D82" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="83" ht="15.75" customHeight="1">
-      <c r="B83" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D83" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="84" ht="15.75" customHeight="1">
-      <c r="B84" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D84" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="85" ht="15.75" customHeight="1">
-      <c r="B85" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="2">
-        <v>79.0</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D86" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="2">
-        <v>84.0</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D87" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="88" ht="15.75" customHeight="1">
-      <c r="B88" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D88" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="2">
-        <v>87.0</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="2">
-        <v>91.0</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="2">
-        <v>92.0</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D91" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="92" ht="15.75" customHeight="1">
-      <c r="B92" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D92" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="2">
-        <v>94.0</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D93" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="2">
-        <v>96.0</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D94" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="95" ht="15.75" customHeight="1">
-      <c r="B95" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D95" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="2">
-        <v>99.0</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="97" ht="15.75" customHeight="1">
-      <c r="B97" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="2">
-        <v>104.0</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="2">
-        <v>106.0</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D99" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="2">
-        <v>107.0</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D100" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="101" ht="15.75" customHeight="1">
-      <c r="B101" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D101" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
     <row r="102" ht="15.75" customHeight="1"/>
     <row r="103" ht="15.75" customHeight="1"/>
     <row r="104" ht="15.75" customHeight="1"/>
